--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,4 +473,3160 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C241"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>S.No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1920-01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1920-02</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1920-03</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1920-04</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1920-05</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1920-06</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1920-07</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1920-08</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1920-09</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1920-10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1920-11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1920-12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1921-01</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1921-02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1921-03</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1921-04</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1921-05</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1921-06</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1921-07</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1921-08</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1921-09</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1921-10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1921-11</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1921-12</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1922-01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1922-02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1922-03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1922-04</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1922-05</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1922-06</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1922-07</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1922-08</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1922-09</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1922-10</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1922-11</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1922-12</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1923-01</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1923-02</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1923-03</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1923-04</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1923-05</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1923-06</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1923-07</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1923-08</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1923-09</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1923-10</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1923-11</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1923-12</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1924-01</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1924-02</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1924-03</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1924-04</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1924-05</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1924-06</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1924-07</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1924-08</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1924-09</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1924-10</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1924-11</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1924-12</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1925-01</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1925-02</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1925-03</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1925-04</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1925-05</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1925-06</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1925-07</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1925-08</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1925-09</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1925-10</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1925-11</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1925-12</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1926-01</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1926-02</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1926-03</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1926-04</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1926-05</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1926-06</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1926-07</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1926-08</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1926-09</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1926-10</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1926-11</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1926-12</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1927-01</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1927-02</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1927-03</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1927-04</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1927-05</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1927-06</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1927-07</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1927-08</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1927-09</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1927-10</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1927-11</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1927-12</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1928-01</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1928-02</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1928-03</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1928-04</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1928-05</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1928-06</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1928-07</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1928-08</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1928-09</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1928-10</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1928-11</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1928-12</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1929-01</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1929-02</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1929-03</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1929-04</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1929-05</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1929-06</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1929-07</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1929-08</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1929-09</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1929-10</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1929-11</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1929-12</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1930-01</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1930-02</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1930-03</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1930-04</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1930-05</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1930-06</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1930-07</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1930-08</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1930-09</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1930-10</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1930-11</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1930-12</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1931-01</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1931-02</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1931-03</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1931-04</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1931-05</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1931-06</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1931-07</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1931-08</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1931-09</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1931-10</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1931-11</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1931-12</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1932-01</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1932-02</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1932-03</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1932-04</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1932-05</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1932-06</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1932-07</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1932-08</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1932-09</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1932-10</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1932-11</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1932-12</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1933-01</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1933-02</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1933-03</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1933-04</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1933-05</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1933-06</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1933-07</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1933-08</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1933-09</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1933-10</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1933-11</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1933-12</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1934-01</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1934-02</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1934-03</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1934-04</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1934-05</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1934-06</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1934-07</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1934-08</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1934-09</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1934-10</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1934-11</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1934-12</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1935-01</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1935-02</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1935-03</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1935-04</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1935-05</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1935-06</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1935-07</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1935-08</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1935-09</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1935-10</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1935-11</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1935-12</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1936-01</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1936-02</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1936-03</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1936-04</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1936-05</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1936-06</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1936-07</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1936-08</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1936-09</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1936-10</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1936-11</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1936-12</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1937-01</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1937-02</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1937-03</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1937-04</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1937-05</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1937-06</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1937-07</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1937-08</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1937-09</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1937-10</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1937-11</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1937-12</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1938-01</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1938-02</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1938-03</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1938-04</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1938-05</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1938-06</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1938-07</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1938-08</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1938-09</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1938-10</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1938-11</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1938-12</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1939-01</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1939-02</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1939-03</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1939-04</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1939-05</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1939-06</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1939-07</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1939-08</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1939-09</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1939-10</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1939-11</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1939-12</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>